--- a/biology/Botanique/Arbre_à_port_pleureur/Arbre_à_port_pleureur.xlsx
+++ b/biology/Botanique/Arbre_à_port_pleureur/Arbre_à_port_pleureur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arbre_%C3%A0_port_pleureur</t>
+          <t>Arbre_à_port_pleureur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un arbre à port pleureur est un arbre dont les branches retombent et se dirigent naturellement vers le sol.
 Le terme fait référence aux pleurs et aux larmes qui coulent toujours vers le bas.
@@ -488,7 +500,7 @@
 Certaines espèces sont naturellement à port pleureur telles que le Saule pleureur (Salix babylonica). Mais pour la plupart des espèces, seuls certains de ses cultivars sont à port pleureur.
 Avec ce port si particulier, la taille de ces arbres est plus limitée que celle des arbres à port érigé. Ils dépassent rarement 10 mètres à quelques exceptions près telles que le hêtre pleureur (Fagus sylvatica f. pendula).
 En raison de cette forme, ils sont appréciés comme arbre d'ornement. Pour être mis en valeur, ils doivent être plantés isolés ou entourés de plantes plus basses.
-Il y a environ 500 cultivars pleureurs dans 75 genres différents [1]. Mais beaucoup de ces cultivars ont disparu de la nature et n'existent qu'en culture.
+Il y a environ 500 cultivars pleureurs dans 75 genres différents . Mais beaucoup de ces cultivars ont disparu de la nature et n'existent qu'en culture.
 </t>
         </is>
       </c>
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arbre_%C3%A0_port_pleureur</t>
+          <t>Arbre_à_port_pleureur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,17 +531,56 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Conifères
-Cedrus atlantica 'Glauca Pendula', Cèdre de l'Atlas
+          <t>Conifères</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cedrus atlantica 'Glauca Pendula', Cèdre de l'Atlas
 Cupressus nootkatensis 'Pendula', Cyprès de Nootka
 Cupressus sempervirens 'Pendula', Cyprès commun
 Juniperus virginiana 'Pendula', Genévrier de Virginie
 Larix decidua 'Pendula' ou 'Repens', Mélèze
 Picea, diverses variétés 'Pendula' d'épicea
 Pinus strobus 'Pendula', Pin blanc d'Amérique
-Sequoiadendron giganteum 'Pendulum', Séquoia géant
-Feuillus
-Acer campestre 'pendulum', Érable champêtre
+Sequoiadendron giganteum 'Pendulum', Séquoia géant</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Arbre_à_port_pleureur</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arbre_%C3%A0_port_pleureur</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste d'arbres à port pleureur</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Feuillus</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Acer campestre 'pendulum', Érable champêtre
 Acer negundo, Érable negundo
 Acer palmatum 'Dissectum', Érable palmé
 Acer platanoides 'Pendulum', Érable plane
